--- a/ExcelFiles/Add_Employee.xlsx
+++ b/ExcelFiles/Add_Employee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PilotProject_Pytest\Team2_OrangeHRM\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pytest_clone\Pytest_clone\Pytest_OrangeHRM\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0C301F-88DE-4D09-8699-3CBEFE52F462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AC1324-8BCE-4104-9F37-EC0FE7ADC283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,38 +16,28 @@
     <sheet name="AddEmployee" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>${fname}</t>
-  </si>
-  <si>
-    <t>${mname}</t>
-  </si>
-  <si>
-    <t>${lname}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>min</t>
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>emp_id</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>mname</t>
+  </si>
+  <si>
+    <t>fname</t>
   </si>
 </sst>
 </file>
@@ -360,36 +350,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.44140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="D2">
+        <v>1235</v>
       </c>
     </row>
   </sheetData>
